--- a/Earnings Pulling/filtered leaps.xlsx
+++ b/Earnings Pulling/filtered leaps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fang\Desktop\Python Trading\Single Name Testing\Single-Name-Testing\Earnings Pulling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A88FBFBC-2418-490B-9FD0-1A84C0956AE4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4BC924FD-3B50-495B-ACC0-BA8CD7042981}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -851,7 +851,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -961,14 +961,14 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1281,7 +1281,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G57" sqref="G57"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Earnings Pulling/filtered leaps.xlsx
+++ b/Earnings Pulling/filtered leaps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fang\Desktop\Python Trading\Single Name Testing\Single-Name-Testing\Earnings Pulling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3F6A73E8-7E34-48B5-9898-F912FED37D74}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B8A085C9-7254-436A-B687-D654E6372B52}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -971,7 +971,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1285,7 +1293,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9599,7 +9607,7 @@
         <v>-1.105</v>
       </c>
     </row>
-    <row r="53" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>107</v>
       </c>
@@ -19738,8 +19746,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:BD115" xr:uid="{FE336A3D-C3C8-49D2-81B5-2C56C7394EE7}">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
     <filterColumn colId="1">
-      <colorFilter dxfId="0"/>
+      <colorFilter dxfId="1"/>
     </filterColumn>
     <filterColumn colId="27">
       <customFilters>

--- a/Earnings Pulling/filtered leaps.xlsx
+++ b/Earnings Pulling/filtered leaps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fang\Desktop\Python Trading\Single Name Testing\Single-Name-Testing\Earnings Pulling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B8A085C9-7254-436A-B687-D654E6372B52}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{392A1C3A-286D-4657-82EE-1A46B7165448}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -884,12 +884,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -936,7 +942,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -965,21 +971,14 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1290,10 +1289,10 @@
   <dimension ref="A1:BD115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E84" sqref="E84"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3616,7 +3615,7 @@
         <v>-0.92300000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:56" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>73</v>
       </c>
@@ -3647,6 +3646,7 @@
       <c r="J15" s="9">
         <v>2.7949999999999999</v>
       </c>
+      <c r="K15" s="9"/>
       <c r="L15" s="10">
         <v>0.91</v>
       </c>
@@ -3698,6 +3698,7 @@
       <c r="AB15" s="9">
         <v>14.716262</v>
       </c>
+      <c r="AC15" s="9"/>
       <c r="AD15" s="9">
         <v>9660</v>
       </c>
@@ -3710,6 +3711,7 @@
       <c r="AG15" s="9">
         <v>180479008</v>
       </c>
+      <c r="AH15" s="9"/>
       <c r="AI15" s="10">
         <v>4.7119996999999997E-2</v>
       </c>
@@ -3927,7 +3929,7 @@
         <v>-0.249</v>
       </c>
     </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>68</v>
       </c>
@@ -10099,7 +10101,7 @@
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>116</v>
       </c>
@@ -11708,7 +11710,7 @@
         <v>6.484</v>
       </c>
     </row>
-    <row r="66" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>37</v>
       </c>
@@ -14569,7 +14571,7 @@
         <v>-2.0430000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:56" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>72</v>
       </c>
@@ -14603,6 +14605,7 @@
       <c r="K84" s="9">
         <v>19.859000000000002</v>
       </c>
+      <c r="L84" s="10"/>
       <c r="M84" s="10">
         <v>0.192</v>
       </c>
@@ -14612,6 +14615,7 @@
       <c r="O84" s="10">
         <v>5.919E-2</v>
       </c>
+      <c r="P84" s="10"/>
       <c r="Q84" s="10">
         <v>4.5190000000000001E-2</v>
       </c>
@@ -14648,6 +14652,7 @@
       <c r="AB84" s="9">
         <v>14.282052</v>
       </c>
+      <c r="AC84" s="9"/>
       <c r="AD84" s="9">
         <v>7643</v>
       </c>
@@ -14660,6 +14665,7 @@
       <c r="AG84" s="9">
         <v>64701000</v>
       </c>
+      <c r="AH84" s="9"/>
       <c r="AI84" s="10">
         <v>3.6119999999999999E-2</v>
       </c>
@@ -16333,7 +16339,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:56" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>108</v>
       </c>
@@ -16364,6 +16370,7 @@
       <c r="J95" s="9">
         <v>1.7370000000000001</v>
       </c>
+      <c r="K95" s="9"/>
       <c r="L95" s="10">
         <v>1.1539999999999999</v>
       </c>
@@ -16500,7 +16507,7 @@
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:56" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>69</v>
       </c>
@@ -16531,6 +16538,7 @@
       <c r="J96" s="9">
         <v>19.902000000000001</v>
       </c>
+      <c r="K96" s="9"/>
       <c r="L96" s="10">
         <v>0.33300000000000002</v>
       </c>
@@ -16667,7 +16675,7 @@
         <v>0.99399999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>65</v>
       </c>
@@ -17147,7 +17155,7 @@
         <v>3.508</v>
       </c>
     </row>
-    <row r="100" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>74</v>
       </c>
@@ -17317,7 +17325,7 @@
         <v>0.95399999999999996</v>
       </c>
     </row>
-    <row r="101" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>132</v>
       </c>
@@ -19748,9 +19756,6 @@
   <autoFilter ref="A1:BD115" xr:uid="{FE336A3D-C3C8-49D2-81B5-2C56C7394EE7}">
     <filterColumn colId="0">
       <colorFilter dxfId="0"/>
-    </filterColumn>
-    <filterColumn colId="1">
-      <colorFilter dxfId="1"/>
     </filterColumn>
     <filterColumn colId="27">
       <customFilters>
